--- a/Statistics/200m Butterfly_statistics.xlsx
+++ b/Statistics/200m Butterfly_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,12 +1036,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Eirik Hakvåg-Sandengen</t>
+          <t>Elias Hauge Lien</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.29,74</t>
+          <t>2.29,67</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20.10.2024</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1071,12 +1071,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Elias Hauge Lien</t>
+          <t>Eirik Hakvåg-Sandengen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.29,67</t>
+          <t>2.29,74</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>20.10.2024</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1666,25 +1666,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Thomas Trøite</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2.47,09</t>
+          <t>2.46,21</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
+          <t>01.10.2017</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1701,25 +1701,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Manith Randula Attanapola</t>
+          <t>Thomas Trøite</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2.49,15</t>
+          <t>2.47,09</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>30.10.2011</t>
+          <t>28.01.2024</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1736,25 +1736,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>David Fjeld</t>
+          <t>Manith Randula Attanapola</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2.51,97</t>
+          <t>2.49,15</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>07.10.2007</t>
+          <t>30.10.2011</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1771,20 +1771,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Vishnu Sattanathan</t>
+          <t>David Fjeld</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2.54,47</t>
+          <t>2.51,97</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>07.10.2007</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1806,25 +1806,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hasith Ransiri Attanapola</t>
+          <t>Vishnu Sattanathan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2.55,38</t>
+          <t>2.54,47</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>22.10.2017</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1841,25 +1841,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lucas Nachappa Muthanna</t>
+          <t>Hasith Ransiri Attanapola</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2.57,49</t>
+          <t>2.55,38</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>22.10.2017</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1876,25 +1876,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Erlend Søderlund</t>
+          <t>Lucas Nachappa Muthanna</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3.01,57</t>
+          <t>2.57,49</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13.03.2011</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1911,25 +1911,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Theodor Solheim</t>
+          <t>Erlend Søderlund</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3.02,71</t>
+          <t>3.01,57</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>13.03.2011</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1946,25 +1946,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bjørn Eimar Endal Sorteberg</t>
+          <t>Theodor Solheim</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3.05,90</t>
+          <t>3.02,71</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1981,25 +1981,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bjørn Erik Ystenes</t>
+          <t>Bjørn Eimar Endal Sorteberg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3.07,95</t>
+          <t>3.05,90</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>13.03.2011</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2016,25 +2016,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Storm Olander Øvergård</t>
+          <t>Bjørn Erik Ystenes</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3.15,01</t>
+          <t>3.07,95</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>15.02.2025</t>
+          <t>13.03.2011</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2051,25 +2051,25 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>David Csejtey</t>
+          <t>Storm Olander Øvergård</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3.31,88</t>
+          <t>3.15,01</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>27.04.2019</t>
+          <t>15.02.2025</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2086,25 +2086,25 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Paal Aagaard</t>
+          <t>David Csejtey</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3.33,53</t>
+          <t>3.31,88</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>08.04.2016</t>
+          <t>27.04.2019</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2121,33 +2121,68 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>Paal Aagaard</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3.33,53</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>125</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>08.04.2016</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>Njål Høie</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>3.38,05</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C50" t="n">
         <v>117</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>09.03.2014</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Molde</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -2492,25 +2527,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Solum Ole Peder Uthus</t>
+          <t>Odin Spangen Normann</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.25,91</t>
+          <t>2.26,78</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.06.2018</t>
+          <t>04.03.2012</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2527,25 +2562,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Odin Spangen Normann</t>
+          <t>Kristian Volden</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.26,78</t>
+          <t>2.28,14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>04.03.2012</t>
+          <t>28.05.2016</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2597,25 +2632,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kristian Volden</t>
+          <t>Joakim I. Larsen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.28,14</t>
+          <t>2.32,58</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28.05.2016</t>
+          <t>01.11.2008</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2632,25 +2667,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joakim I. Larsen</t>
+          <t>Thomas Johansen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.32,58</t>
+          <t>2.33,75</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>01.11.2008</t>
+          <t>14.06.2015</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2667,20 +2702,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Thomas Johansen</t>
+          <t>Emil Vindvik</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.33,75</t>
+          <t>2.35,23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14.06.2015</t>
+          <t>01.05.2022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2702,25 +2737,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Emil Vindvik</t>
+          <t>Eirik Hakvåg-Sandengen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2.35,23</t>
+          <t>2.36,97</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2737,25 +2772,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Eirik Hakvåg-Sandengen</t>
+          <t>Johan Hjelseth Storstad</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.36,97</t>
+          <t>2.37,20</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>13.03.2021</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2772,25 +2807,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Johan Hjelseth Storstad</t>
+          <t>Kristoffer Loeng</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.37,20</t>
+          <t>2.38,76</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13.03.2021</t>
+          <t>12.06.2016</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2807,20 +2842,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kristoffer Loeng</t>
+          <t>Joakim Gjerde</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.38,76</t>
+          <t>2.47,88</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12.06.2016</t>
+          <t>15.06.2014</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2842,25 +2877,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Joakim Gjerde</t>
+          <t>Sondre Brunvoll Møllerløkken</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.47,88</t>
+          <t>2.49,11</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15.06.2014</t>
+          <t>16.06.2024</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2877,16 +2912,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sondre Brunvoll Møllerløkken</t>
+          <t>Einar Woldseth</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2.49,11</t>
+          <t>2.51,31</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2912,25 +2947,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Einar Woldseth</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.51,31</t>
+          <t>2.52,31</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16.06.2024</t>
+          <t>08.07.2017</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3270,7 +3305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4123,25 +4158,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Olea Winnberg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.46,21</t>
+          <t>3.13,18</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>01.10.2017</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4158,25 +4193,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Olea Winnberg</t>
+          <t>Oline Skjønberg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3.13,18</t>
+          <t>3.26,20</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>27.04.2019</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4193,25 +4228,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Oline Skjønberg</t>
+          <t>Chloe Branlat</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3.26,20</t>
+          <t>3.37,04</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27.04.2019</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4228,20 +4263,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chloe Branlat</t>
+          <t>Othelie Annette Høie</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3.37,04</t>
+          <t>3.40,13</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>06.10.2013</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4263,20 +4298,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Othelie Annette Høie</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3.40,13</t>
+          <t>3.55,64</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>06.10.2013</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4290,41 +4325,6 @@
         </is>
       </c>
       <c r="G29" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3.55,64</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>130</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>19.01.2025</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
@@ -4341,7 +4341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4704,25 +4704,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Miriam Vedvik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.52,31</t>
+          <t>3.12,55</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08.07.2017</t>
+          <t>28.04.2007</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4739,25 +4739,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Miriam Vedvik</t>
+          <t>Thora Bjarnøe Brandsegg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3.12,55</t>
+          <t>3.21,80</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28.04.2007</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4774,20 +4774,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Thora Bjarnøe Brandsegg</t>
+          <t>Emma Lu Tjeldvoll</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3.21,80</t>
+          <t>3.22,14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>01.05.2022</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -4809,20 +4809,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Emma Lu Tjeldvoll</t>
+          <t>Elise Nygård</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.22,14</t>
+          <t>3.23,17</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>13.06.2010</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4844,25 +4844,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Elise Nygård</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3.23,17</t>
+          <t>3.05,90</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.06.2010</t>
+          <t>07.07.2013</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4879,25 +4879,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Live Killingberg Sandberg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.05,90</t>
+          <t>3.30,29</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>07.07.2013</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4914,25 +4914,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Live Killingberg Sandberg</t>
+          <t>Irja Gravdahl</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3.30,29</t>
+          <t>3.46,84</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>29.04.2006</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4949,16 +4949,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Irja Gravdahl</t>
+          <t>Hedda Østgaard</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3.46,84</t>
+          <t>3.55,24</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -4976,41 +4976,6 @@
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Hedda Østgaard</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3.55,24</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>138</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>29.04.2006</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Namsos</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>50m</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
